--- a/alison68/evidence.xlsx
+++ b/alison68/evidence.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="795" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="87">
   <si>
     <t>TeamName</t>
   </si>
@@ -76,45 +76,12 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
@@ -143,6 +110,201 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>F23FEB99343C94BD405B5776A7241B903950BD63BEA13F33A6E4755A30F02CCA</t>
+  </si>
+  <si>
+    <t>lazyBears</t>
+  </si>
+  <si>
+    <t>7BBFAF78A985D9900CFB65929E010BAE7DA4F81452FDCD4C1C63EBAFFB59CE8D</t>
+  </si>
+  <si>
+    <t>lazybear1</t>
+  </si>
+  <si>
+    <t>062C5DC8C78460683C0708D6F3664DED2A9C8D50598754B2B189FAA4539F9898</t>
+  </si>
+  <si>
+    <t>lazybear2</t>
+  </si>
+  <si>
+    <t>B39B14EDC5C0668DD31624BCBB9AEBF4999792048EB082E56FF79EC5A0C73DF9</t>
+  </si>
+  <si>
+    <t>stars1s2sfnhjhy4yr3nkraf4vkzzdd3tv8k4p9hpp3r0mjt7mp4gu0m0q6vf6k3</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>5ED5BD6DC021E8414F30D781127DA23A6589D9C3BE9FCE5AD7F1FFC23F04BC59</t>
+  </si>
+  <si>
+    <t>ibc/12636907349B98DBC1DC30D7B25241C2187F8D21CE984582E1E39BF0C5FA94E5</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>FBBD028892F0FD4AFB9EAE87229B5F7855B6401A47133C31A07F926153539EBC</t>
+  </si>
+  <si>
+    <t>9CB6CFDAFBFF7A6E0CA3E7EF1F8D06FBF3D5B0EB0045B5913DA5398728B1B41D</t>
+  </si>
+  <si>
+    <t>ibc/6F5265295330F227E150F8C5B1E2A94BF7FB73A7D2BD8FDE835BB0FAF4B5139A</t>
+  </si>
+  <si>
+    <t>lazybear3</t>
+  </si>
+  <si>
+    <t>ibc/86BEB7D879858F32CFB988A410BB14650B54CA946BE3593D64B0E86B4FFA8007</t>
+  </si>
+  <si>
+    <t>lazybear4</t>
+  </si>
+  <si>
+    <t>ibc/0DBB8BBF4604AC8D85D86ED4A8665EEA7F29D6507633507DB6A46E5B5C0F7BF7</t>
+  </si>
+  <si>
+    <t>lazybear5</t>
+  </si>
+  <si>
+    <t>ibc/3821DD18AC90A447703696A7094E765B88588432FF035D9D815DF8118C6DBD68</t>
+  </si>
+  <si>
+    <t>lazybear6</t>
+  </si>
+  <si>
+    <t>ibc/A38981D0704AE339B794641AAAF8034105E7336712559AF7608CED4E0433176A</t>
+  </si>
+  <si>
+    <t>lazybear7</t>
+  </si>
+  <si>
+    <t>ibc/5C45529D22878158FA29A63FA074CC2C9812BFF5CF9ADBDA37C2BA2A636C99CB</t>
+  </si>
+  <si>
+    <t>lazybear8</t>
+  </si>
+  <si>
+    <t>AAEE2F8CC2C759D78E384E70887142F014EE9676FC3FB122508B974F57BA92B3</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>C4867F6493D7C8C274C5E0B454DFE8E20BBFE7C46170CA567AB681AE8B8749BC</t>
+  </si>
+  <si>
+    <t>F08166C7D96F9B4C12073A317F818CDDB40777F2869BC13B1ABA3DF74CA2D763</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>E4F42480070833A5B7C1FCEC7241CBA73C6003D0D45ED565E3C0B40F10EED5EF</t>
+  </si>
+  <si>
+    <t>4F2AEAD46BC4D50ED2A6DE4877A15C12F7CF1501E1FE4C772D7C5221AEA6C8E1</t>
+  </si>
+  <si>
+    <t>4AD3FCFCF01B4E9317625162552128F478DB03FA65A02543AE927BAA773B3558</t>
+  </si>
+  <si>
+    <t>B206869732CAA19424067C930E48C45393E4A53995ED509C5504BEF1EF31ECD9</t>
+  </si>
+  <si>
+    <t>47AC727F28A1FD45F5B6BADD7E0E2044FB7A8631051AB623C8B9FC2B1200F5B9</t>
+  </si>
+  <si>
+    <t>00ED161EA28409EC801AF1A25BEB7169A2D15AE9C4731936AA1B3FB51C42CA62</t>
+  </si>
+  <si>
+    <t>C51C8AC5BE18CCE47AA9BEC8A07B6516EE059017E5352B1BB819CE5F9185D542</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>6539C618CBF842B8F93EBBF9C29CAEC54ACF3BC7B842413C89F712DF418F11C6</t>
+  </si>
+  <si>
+    <t>C78D9863C5EB55B66E32DBABBA21C8547C8EA7159FD4EDE486842B521034797F</t>
+  </si>
+  <si>
+    <t>FE223FC41F40F54C2F9EF8F2E2501B9CA07F710092FE676B2F0F10E2BB7E5D46</t>
+  </si>
+  <si>
+    <t>8FE5F3AE133AC1F8872DDDF4181B900FD474168099074935C485119F95D76AB5</t>
+  </si>
+  <si>
+    <t>3AD4BB2FE15CC5451CB45538B17D57A28002D05441D11139AA780CF5B6C4C1F2</t>
+  </si>
+  <si>
+    <t>E1012E7C774DAA5C3BB68DD1D385613C3A2E07DC9A6A6A92D10F6382777499D5</t>
+  </si>
+  <si>
+    <t>E531990457F44409946E3A6A5E27533CFC413FCF1E83508B4866A5D2CD4EF015</t>
+  </si>
+  <si>
+    <t>32CE662C7D10AF2D611F6D7F5630A8303382550C2C822BD1BF2A54C7E5D09268</t>
+  </si>
+  <si>
+    <t>828228DDD9B2535C835C3B5C8D8DFC8D9E4DFA1A2E00B84FB5011D574C25E127</t>
+  </si>
+  <si>
+    <t>DFB2EED8BCC7CE5C4930AF277D45EE60279D43E6731EB547104728C68BF1E217</t>
+  </si>
+  <si>
+    <t>09C099F4B65B69AEFE68D55E2F5599556503298C1D2C8FF66CF58C2C02C95DE0</t>
+  </si>
+  <si>
+    <t>305A8EED1FF8FDBB517FC11ED51E94BCF281E48331B11EC68E7016C627F492D5</t>
+  </si>
+  <si>
+    <t>0026B3CB343D87D3B37FBC21AD73D545964F2AF8D9BB21D603C362B6203F0324</t>
+  </si>
+  <si>
+    <t>95DEC1F2A4A6685066B0B44C780B44DD8FBBDFE4B8F5128F15586D5EA925C19A</t>
+  </si>
+  <si>
+    <t>609087C33CFEB55AFD2A6C7DC8440FBF5FE67F778C0A2FE8C69F347A8ED6CBBD</t>
+  </si>
+  <si>
+    <t>B2D73F98FF5BD35C51ED0C69366E0C88BD5F4006C643DB42C5A7D85B9D449F6D</t>
+  </si>
+  <si>
+    <t>B8AFA9A2D62113240834133E4D3607DDA950F4EF6CBA97BBAF08BDE49ADDC2E9</t>
+  </si>
+  <si>
+    <t>B0FB9BD08BCF3E904E59D0F58A6F55DD45D7572813AB8FC235EE592B4463AD53</t>
+  </si>
+  <si>
+    <t>AE9089342AC5B217A8AA634C8C89A28CE6464F4A61C380C3FF539BEF4841DA6C</t>
+  </si>
+  <si>
+    <t>41FDF3A8180AAE407B6AB03E356F5C72300333EC1B8851AF4F05E593E4199C29</t>
+  </si>
+  <si>
+    <t>FC73B70C81534A7E5524986C3CA501DB066526240875285F6861F2C30CBD54BE</t>
+  </si>
+  <si>
+    <t>8C342AD8FB441A130C60B0E648630915DD1877C78E5206614F92E91990355800</t>
+  </si>
+  <si>
+    <t>F20E55749139274540CCB3ED6706FB9EC24B58777A5032A04666B6660DDD3654</t>
+  </si>
+  <si>
+    <t>8980898BC5999DAFCE04525D9F5C01D2F803BAB244AB788FC2AF806E56D321A8</t>
+  </si>
+  <si>
+    <t>FBBAD11F0C6A6465F27143ACEF6DB90D42119D3DC93E7038A3426278C22CF222</t>
+  </si>
+  <si>
+    <t>270D67A70E01BF358CCB6BA8DDF07B6AD508C252E59A05C13B4DC4E060F397C8</t>
   </si>
 </sst>
 </file>
@@ -217,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -236,6 +398,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -581,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,28 +790,28 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -672,15 +839,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -706,15 +875,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -740,15 +911,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -774,15 +947,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -793,14 +966,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -808,43 +983,470 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
+      <c r="A3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+      <c r="A4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -852,322 +1454,55 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+      <c r="A2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
+      <c r="A3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
+      <c r="A4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1194,12 +1529,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1226,12 +1561,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1258,12 +1593,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1292,12 +1627,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1323,12 +1658,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1338,9 +1673,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1356,18 +1693,29 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1397,24 +1747,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1444,24 +1796,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1491,24 +1845,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1539,24 +1895,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1569,7 +1925,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1582,15 +1940,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1616,15 +1976,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
